--- a/ig/conditionlist/all-profiles.xlsx
+++ b/ig/conditionlist/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15839" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15839" uniqueCount="1418">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T10:26:02+01:00</t>
+    <t>2025-05-12T13:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2956,13 +2956,16 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
   </si>
   <si>
     <t>DocumentReference.extension.value[x]:valueString</t>
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>DocumentReference.extension:homeCommunityid</t>
@@ -3215,7 +3218,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
   </si>
   <si>
     <t>DocumentReference.type.id</t>
@@ -3667,7 +3670,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
   </si>
   <si>
     <t>DocumentReference.context</t>
@@ -5202,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="87">
@@ -5210,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="88">
@@ -5226,7 +5229,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="90">
@@ -5286,7 +5289,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="98">
@@ -5322,7 +5325,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="103">
@@ -5330,7 +5333,7 @@
         <v>32</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104">
@@ -5365,17 +5368,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="70.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="59.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="32.3984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.1171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="52.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5384,21 +5387,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="90.01953125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="88.46875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="46.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="77.69921875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="78.32421875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -35663,7 +35666,7 @@
         <v>21</v>
       </c>
       <c r="T289" t="s" s="2">
-        <v>7</v>
+        <v>948</v>
       </c>
       <c r="U289" t="s" s="2">
         <v>21</v>
@@ -35722,13 +35725,13 @@
         <v>914</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>929</v>
       </c>
       <c r="D290" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E290" t="s" s="2">
         <v>21</v>
@@ -35747,16 +35750,16 @@
         <v>21</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -35827,13 +35830,13 @@
         <v>914</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C291" t="s" s="2">
         <v>929</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E291" t="s" s="2">
         <v>21</v>
@@ -35852,16 +35855,16 @@
         <v>21</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
@@ -35932,10 +35935,10 @@
         <v>914</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36039,10 +36042,10 @@
         <v>914</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36068,16 +36071,16 @@
         <v>110</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O293" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P293" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q293" t="s" s="2">
         <v>21</v>
@@ -36126,7 +36129,7 @@
         <v>21</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>74</v>
@@ -36146,10 +36149,10 @@
         <v>914</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36249,10 +36252,10 @@
         <v>914</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -36354,10 +36357,10 @@
         <v>914</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36383,16 +36386,16 @@
         <v>101</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>21</v>
@@ -36420,10 +36423,10 @@
         <v>119</v>
       </c>
       <c r="Z296" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA296" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB296" t="s" s="2">
         <v>21</v>
@@ -36441,7 +36444,7 @@
         <v>21</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>74</v>
@@ -36461,10 +36464,10 @@
         <v>914</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36490,16 +36493,16 @@
         <v>384</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P297" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>21</v>
@@ -36527,10 +36530,10 @@
         <v>336</v>
       </c>
       <c r="Z297" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA297" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB297" t="s" s="2">
         <v>21</v>
@@ -36548,7 +36551,7 @@
         <v>21</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>74</v>
@@ -36568,10 +36571,10 @@
         <v>914</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36597,16 +36600,16 @@
         <v>95</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O298" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P298" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q298" t="s" s="2">
         <v>21</v>
@@ -36619,7 +36622,7 @@
         <v>21</v>
       </c>
       <c r="U298" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V298" t="s" s="2">
         <v>21</v>
@@ -36655,7 +36658,7 @@
         <v>21</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -36675,10 +36678,10 @@
         <v>914</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36704,13 +36707,13 @@
         <v>139</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -36724,7 +36727,7 @@
         <v>21</v>
       </c>
       <c r="U299" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V299" t="s" s="2">
         <v>21</v>
@@ -36760,7 +36763,7 @@
         <v>21</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
@@ -36780,10 +36783,10 @@
         <v>914</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36809,10 +36812,10 @@
         <v>517</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
@@ -36863,7 +36866,7 @@
         <v>21</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
@@ -36883,10 +36886,10 @@
         <v>914</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36912,13 +36915,13 @@
         <v>480</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
@@ -36968,7 +36971,7 @@
         <v>21</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>74</v>
@@ -36988,10 +36991,10 @@
         <v>914</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37017,10 +37020,10 @@
         <v>110</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
@@ -37071,7 +37074,7 @@
         <v>21</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>74</v>
@@ -37083,7 +37086,7 @@
         <v>21</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="303">
@@ -37091,10 +37094,10 @@
         <v>914</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -37194,10 +37197,10 @@
         <v>914</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37299,10 +37302,10 @@
         <v>914</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37328,16 +37331,16 @@
         <v>101</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P305" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q305" t="s" s="2">
         <v>21</v>
@@ -37365,10 +37368,10 @@
         <v>119</v>
       </c>
       <c r="Z305" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA305" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB305" t="s" s="2">
         <v>21</v>
@@ -37386,7 +37389,7 @@
         <v>21</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>74</v>
@@ -37406,10 +37409,10 @@
         <v>914</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37435,16 +37438,16 @@
         <v>384</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O306" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P306" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q306" t="s" s="2">
         <v>21</v>
@@ -37472,10 +37475,10 @@
         <v>336</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>21</v>
@@ -37493,7 +37496,7 @@
         <v>21</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>74</v>
@@ -37513,10 +37516,10 @@
         <v>914</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37542,16 +37545,16 @@
         <v>95</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O307" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P307" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q307" t="s" s="2">
         <v>21</v>
@@ -37564,7 +37567,7 @@
         <v>21</v>
       </c>
       <c r="U307" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V307" t="s" s="2">
         <v>21</v>
@@ -37600,7 +37603,7 @@
         <v>21</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>74</v>
@@ -37620,10 +37623,10 @@
         <v>914</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37649,13 +37652,13 @@
         <v>139</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
@@ -37669,7 +37672,7 @@
         <v>21</v>
       </c>
       <c r="U308" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V308" t="s" s="2">
         <v>21</v>
@@ -37705,7 +37708,7 @@
         <v>21</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>74</v>
@@ -37725,10 +37728,10 @@
         <v>914</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37754,10 +37757,10 @@
         <v>517</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
@@ -37808,7 +37811,7 @@
         <v>21</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>74</v>
@@ -37828,10 +37831,10 @@
         <v>914</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37857,13 +37860,13 @@
         <v>480</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -37913,7 +37916,7 @@
         <v>21</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>74</v>
@@ -37933,10 +37936,10 @@
         <v>914</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37962,13 +37965,13 @@
         <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O311" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -37997,10 +38000,10 @@
         <v>119</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>21</v>
@@ -38018,7 +38021,7 @@
         <v>21</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>81</v>
@@ -38038,10 +38041,10 @@
         <v>914</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38070,10 +38073,10 @@
         <v>376</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O312" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
@@ -38102,7 +38105,7 @@
         <v>119</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AA312" t="s" s="2">
         <v>382</v>
@@ -38123,7 +38126,7 @@
         <v>21</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>74</v>
@@ -38143,10 +38146,10 @@
         <v>914</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38172,13 +38175,13 @@
         <v>384</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
@@ -38208,7 +38211,7 @@
       </c>
       <c r="Z313" s="2"/>
       <c r="AA313" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>21</v>
@@ -38226,7 +38229,7 @@
         <v>21</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>74</v>
@@ -38246,10 +38249,10 @@
         <v>914</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38349,10 +38352,10 @@
         <v>914</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38454,10 +38457,10 @@
         <v>914</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38561,10 +38564,10 @@
         <v>914</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38664,10 +38667,10 @@
         <v>914</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38769,10 +38772,10 @@
         <v>914</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38876,10 +38879,10 @@
         <v>914</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38981,10 +38984,10 @@
         <v>914</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39086,10 +39089,10 @@
         <v>914</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -39191,10 +39194,10 @@
         <v>914</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -39298,10 +39301,10 @@
         <v>914</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39405,14 +39408,14 @@
         <v>914</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" t="s" s="2">
@@ -39434,13 +39437,13 @@
         <v>384</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O325" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
@@ -39470,7 +39473,7 @@
       </c>
       <c r="Z325" s="2"/>
       <c r="AA325" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>21</v>
@@ -39488,7 +39491,7 @@
         <v>21</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>74</v>
@@ -39508,10 +39511,10 @@
         <v>914</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39611,10 +39614,10 @@
         <v>914</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39716,10 +39719,10 @@
         <v>914</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39823,10 +39826,10 @@
         <v>914</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39926,10 +39929,10 @@
         <v>914</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40031,10 +40034,10 @@
         <v>914</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -40138,10 +40141,10 @@
         <v>914</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -40243,10 +40246,10 @@
         <v>914</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40348,10 +40351,10 @@
         <v>914</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40453,10 +40456,10 @@
         <v>914</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40560,10 +40563,10 @@
         <v>914</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40667,10 +40670,10 @@
         <v>914</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40693,13 +40696,13 @@
         <v>82</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
@@ -40750,7 +40753,7 @@
         <v>21</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>74</v>
@@ -40770,14 +40773,14 @@
         <v>914</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
@@ -40799,13 +40802,13 @@
         <v>123</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40855,7 +40858,7 @@
         <v>21</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>74</v>
@@ -40875,10 +40878,10 @@
         <v>914</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40901,16 +40904,16 @@
         <v>82</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
@@ -40958,7 +40961,7 @@
         <v>436</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>74</v>
@@ -40978,10 +40981,10 @@
         <v>914</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D340" t="s" s="2">
         <v>438</v>
@@ -41006,16 +41009,16 @@
         <v>82</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -41065,7 +41068,7 @@
         <v>21</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>74</v>
@@ -41085,10 +41088,10 @@
         <v>914</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D341" t="s" s="2">
         <v>442</v>
@@ -41113,16 +41116,16 @@
         <v>82</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -41172,7 +41175,7 @@
         <v>21</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>74</v>
@@ -41192,10 +41195,10 @@
         <v>914</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41218,16 +41221,16 @@
         <v>21</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
@@ -41277,7 +41280,7 @@
         <v>21</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>74</v>
@@ -41297,10 +41300,10 @@
         <v>914</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41326,13 +41329,13 @@
         <v>480</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
@@ -41382,7 +41385,7 @@
         <v>21</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>74</v>
@@ -41402,10 +41405,10 @@
         <v>914</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41431,13 +41434,13 @@
         <v>134</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -41487,7 +41490,7 @@
         <v>21</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>74</v>
@@ -41507,10 +41510,10 @@
         <v>914</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41610,10 +41613,10 @@
         <v>914</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41715,10 +41718,10 @@
         <v>914</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41822,10 +41825,10 @@
         <v>914</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41854,7 +41857,7 @@
         <v>493</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>495</v>
@@ -41907,7 +41910,7 @@
         <v>21</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>81</v>
@@ -41927,10 +41930,10 @@
         <v>914</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41953,13 +41956,13 @@
         <v>82</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M349" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -42010,7 +42013,7 @@
         <v>21</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>81</v>
@@ -42030,10 +42033,10 @@
         <v>914</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -42059,16 +42062,16 @@
         <v>139</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O350" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="P350" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>21</v>
@@ -42117,7 +42120,7 @@
         <v>21</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>74</v>
@@ -42137,10 +42140,10 @@
         <v>914</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42166,16 +42169,16 @@
         <v>384</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="P351" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q351" t="s" s="2">
         <v>21</v>
@@ -42224,7 +42227,7 @@
         <v>21</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>74</v>
@@ -42244,10 +42247,10 @@
         <v>914</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -42273,10 +42276,10 @@
         <v>134</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
@@ -42327,7 +42330,7 @@
         <v>21</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>81</v>
@@ -42347,10 +42350,10 @@
         <v>914</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42450,10 +42453,10 @@
         <v>914</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42555,10 +42558,10 @@
         <v>914</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42662,10 +42665,10 @@
         <v>914</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42688,13 +42691,13 @@
         <v>82</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42745,7 +42748,7 @@
         <v>21</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>81</v>
@@ -42765,10 +42768,10 @@
         <v>914</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42868,10 +42871,10 @@
         <v>914</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42973,10 +42976,10 @@
         <v>914</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43002,14 +43005,14 @@
         <v>101</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>21</v>
@@ -43022,7 +43025,7 @@
         <v>21</v>
       </c>
       <c r="U359" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="V359" t="s" s="2">
         <v>21</v>
@@ -43038,7 +43041,7 @@
       </c>
       <c r="Z359" s="2"/>
       <c r="AA359" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AB359" t="s" s="2">
         <v>21</v>
@@ -43056,7 +43059,7 @@
         <v>21</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>74</v>
@@ -43076,10 +43079,10 @@
         <v>914</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43105,14 +43108,14 @@
         <v>101</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>21</v>
@@ -43125,7 +43128,7 @@
         <v>21</v>
       </c>
       <c r="U360" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="V360" t="s" s="2">
         <v>21</v>
@@ -43141,7 +43144,7 @@
       </c>
       <c r="Z360" s="2"/>
       <c r="AA360" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>21</v>
@@ -43159,7 +43162,7 @@
         <v>21</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>74</v>
@@ -43179,10 +43182,10 @@
         <v>914</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43205,19 +43208,19 @@
         <v>21</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P361" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>21</v>
@@ -43266,7 +43269,7 @@
         <v>21</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>74</v>
@@ -43286,10 +43289,10 @@
         <v>914</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43312,19 +43315,19 @@
         <v>82</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>21</v>
@@ -43337,7 +43340,7 @@
         <v>21</v>
       </c>
       <c r="U362" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="V362" t="s" s="2">
         <v>21</v>
@@ -43373,7 +43376,7 @@
         <v>21</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>74</v>
@@ -43393,10 +43396,10 @@
         <v>914</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -43422,16 +43425,16 @@
         <v>128</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P363" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>21</v>
@@ -43480,7 +43483,7 @@
         <v>21</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>74</v>
@@ -43500,10 +43503,10 @@
         <v>914</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43526,19 +43529,19 @@
         <v>82</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="P364" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q364" t="s" s="2">
         <v>21</v>
@@ -43587,7 +43590,7 @@
         <v>21</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>74</v>
@@ -43607,10 +43610,10 @@
         <v>914</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43636,14 +43639,14 @@
         <v>139</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="O365" s="2"/>
       <c r="P365" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>21</v>
@@ -43656,7 +43659,7 @@
         <v>21</v>
       </c>
       <c r="U365" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="V365" t="s" s="2">
         <v>21</v>
@@ -43692,7 +43695,7 @@
         <v>21</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>74</v>
@@ -43712,10 +43715,10 @@
         <v>914</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43741,14 +43744,14 @@
         <v>425</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="O366" s="2"/>
       <c r="P366" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="Q366" t="s" s="2">
         <v>21</v>
@@ -43797,7 +43800,7 @@
         <v>21</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>74</v>
@@ -43817,10 +43820,10 @@
         <v>914</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43846,13 +43849,13 @@
         <v>332</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -43882,7 +43885,7 @@
       </c>
       <c r="Z367" s="2"/>
       <c r="AA367" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="AB367" t="s" s="2">
         <v>21</v>
@@ -43900,7 +43903,7 @@
         <v>21</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>74</v>
@@ -43920,10 +43923,10 @@
         <v>914</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43949,13 +43952,13 @@
         <v>134</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="P368" s="2"/>
       <c r="Q368" t="s" s="2">
@@ -44005,7 +44008,7 @@
         <v>21</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>74</v>
@@ -44025,10 +44028,10 @@
         <v>914</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44128,10 +44131,10 @@
         <v>914</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44233,10 +44236,10 @@
         <v>914</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44340,10 +44343,10 @@
         <v>914</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44366,13 +44369,13 @@
         <v>21</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" s="2"/>
@@ -44423,7 +44426,7 @@
         <v>21</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>74</v>
@@ -44443,10 +44446,10 @@
         <v>914</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44472,13 +44475,13 @@
         <v>384</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P373" s="2"/>
       <c r="Q373" t="s" s="2">
@@ -44528,7 +44531,7 @@
         <v>21</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>74</v>
@@ -44548,10 +44551,10 @@
         <v>914</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -44651,10 +44654,10 @@
         <v>914</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44756,10 +44759,10 @@
         <v>914</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44863,10 +44866,10 @@
         <v>914</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44966,10 +44969,10 @@
         <v>914</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -45071,10 +45074,10 @@
         <v>914</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45178,10 +45181,10 @@
         <v>914</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45283,10 +45286,10 @@
         <v>914</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -45388,10 +45391,10 @@
         <v>914</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45493,10 +45496,10 @@
         <v>914</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45600,10 +45603,10 @@
         <v>914</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45707,10 +45710,10 @@
         <v>914</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -45736,10 +45739,10 @@
         <v>517</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
@@ -45790,7 +45793,7 @@
         <v>21</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>74</v>
@@ -45810,10 +45813,10 @@
         <v>914</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -45913,10 +45916,10 @@
         <v>914</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46018,10 +46021,10 @@
         <v>914</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -46123,10 +46126,10 @@
         <v>914</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46230,10 +46233,10 @@
         <v>914</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46259,10 +46262,10 @@
         <v>384</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
@@ -46292,10 +46295,10 @@
         <v>344</v>
       </c>
       <c r="Z390" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AA390" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AB390" t="s" s="2">
         <v>21</v>
@@ -46313,7 +46316,7 @@
         <v>21</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>74</v>
@@ -46333,10 +46336,10 @@
         <v>914</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -46436,10 +46439,10 @@
         <v>914</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46541,10 +46544,10 @@
         <v>914</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -46648,10 +46651,10 @@
         <v>914</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46751,10 +46754,10 @@
         <v>914</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -46856,10 +46859,10 @@
         <v>914</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46923,7 +46926,7 @@
       </c>
       <c r="Z396" s="2"/>
       <c r="AA396" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AB396" t="s" s="2">
         <v>21</v>
@@ -46961,10 +46964,10 @@
         <v>914</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -47066,10 +47069,10 @@
         <v>914</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47171,10 +47174,10 @@
         <v>914</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47276,10 +47279,10 @@
         <v>914</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47383,10 +47386,10 @@
         <v>914</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47490,10 +47493,10 @@
         <v>914</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47519,16 +47522,16 @@
         <v>384</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="O402" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="P402" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="Q402" t="s" s="2">
         <v>21</v>
@@ -47556,10 +47559,10 @@
         <v>344</v>
       </c>
       <c r="Z402" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="AA402" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AB402" t="s" s="2">
         <v>21</v>
@@ -47577,7 +47580,7 @@
         <v>21</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -47597,10 +47600,10 @@
         <v>914</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -47700,10 +47703,10 @@
         <v>914</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47805,10 +47808,10 @@
         <v>914</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -47912,10 +47915,10 @@
         <v>914</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -48015,10 +48018,10 @@
         <v>914</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48120,10 +48123,10 @@
         <v>914</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48187,7 +48190,7 @@
       </c>
       <c r="Z408" s="2"/>
       <c r="AA408" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AB408" t="s" s="2">
         <v>21</v>
@@ -48225,10 +48228,10 @@
         <v>914</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48330,10 +48333,10 @@
         <v>914</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48435,10 +48438,10 @@
         <v>914</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -48540,10 +48543,10 @@
         <v>914</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48647,10 +48650,10 @@
         <v>914</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -48754,10 +48757,10 @@
         <v>914</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -48780,13 +48783,13 @@
         <v>21</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -48837,7 +48840,7 @@
         <v>21</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -48857,10 +48860,10 @@
         <v>914</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -48886,13 +48889,13 @@
         <v>535</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="P415" s="2"/>
       <c r="Q415" t="s" s="2">
@@ -48942,7 +48945,7 @@
         <v>21</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -48959,13 +48962,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -48991,10 +48994,10 @@
         <v>76</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -49045,7 +49048,7 @@
         <v>21</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -49057,18 +49060,18 @@
         <v>21</v>
       </c>
       <c r="AK416" t="s" s="2">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -49167,13 +49170,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49270,13 +49273,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -49375,13 +49378,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49480,13 +49483,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -49585,13 +49588,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49690,13 +49693,13 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -49795,13 +49798,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -49902,13 +49905,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -49934,14 +49937,14 @@
         <v>110</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O425" s="2"/>
       <c r="P425" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q425" t="s" s="2">
         <v>21</v>
@@ -49988,7 +49991,7 @@
         <v>168</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>74</v>
@@ -49997,7 +50000,7 @@
         <v>75</v>
       </c>
       <c r="AJ425" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK425" t="s" s="2">
         <v>93</v>
@@ -50005,16 +50008,16 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E426" t="s" s="2">
         <v>21</v>
@@ -50036,17 +50039,17 @@
         <v>21</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O426" s="2"/>
       <c r="P426" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q426" t="s" s="2">
         <v>21</v>
@@ -50095,7 +50098,7 @@
         <v>21</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>74</v>
@@ -50112,16 +50115,16 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E427" t="s" s="2">
         <v>21</v>
@@ -50143,17 +50146,17 @@
         <v>82</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O427" s="2"/>
       <c r="P427" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q427" t="s" s="2">
         <v>21</v>
@@ -50202,7 +50205,7 @@
         <v>21</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>74</v>
@@ -50219,16 +50222,16 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D428" t="s" s="2">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E428" t="s" s="2">
         <v>21</v>
@@ -50250,17 +50253,17 @@
         <v>21</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q428" t="s" s="2">
         <v>21</v>
@@ -50309,7 +50312,7 @@
         <v>21</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>74</v>
@@ -50326,16 +50329,16 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E429" t="s" s="2">
         <v>21</v>
@@ -50360,14 +50363,14 @@
         <v>110</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>21</v>
@@ -50416,7 +50419,7 @@
         <v>21</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>74</v>
@@ -50425,7 +50428,7 @@
         <v>75</v>
       </c>
       <c r="AJ429" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK429" t="s" s="2">
         <v>93</v>
@@ -50433,13 +50436,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50536,13 +50539,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50641,13 +50644,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -50673,16 +50676,16 @@
         <v>101</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P432" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q432" t="s" s="2">
         <v>21</v>
@@ -50710,10 +50713,10 @@
         <v>119</v>
       </c>
       <c r="Z432" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA432" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB432" t="s" s="2">
         <v>21</v>
@@ -50731,7 +50734,7 @@
         <v>21</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>74</v>
@@ -50748,13 +50751,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -50780,16 +50783,16 @@
         <v>384</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P433" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q433" t="s" s="2">
         <v>21</v>
@@ -50817,10 +50820,10 @@
         <v>336</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA433" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB433" t="s" s="2">
         <v>21</v>
@@ -50838,7 +50841,7 @@
         <v>21</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>74</v>
@@ -50855,13 +50858,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -50887,29 +50890,29 @@
         <v>95</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O434" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P434" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q434" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R434" s="2"/>
       <c r="S434" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="T434" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U434" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V434" t="s" s="2">
         <v>21</v>
@@ -50945,7 +50948,7 @@
         <v>21</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>74</v>
@@ -50962,13 +50965,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -50994,13 +50997,13 @@
         <v>139</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O435" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P435" s="2"/>
       <c r="Q435" t="s" s="2">
@@ -51014,7 +51017,7 @@
         <v>21</v>
       </c>
       <c r="U435" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V435" t="s" s="2">
         <v>21</v>
@@ -51050,7 +51053,7 @@
         <v>21</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>74</v>
@@ -51067,13 +51070,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -51099,10 +51102,10 @@
         <v>517</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
@@ -51153,7 +51156,7 @@
         <v>21</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>74</v>
@@ -51170,13 +51173,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51202,13 +51205,13 @@
         <v>480</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O437" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P437" s="2"/>
       <c r="Q437" t="s" s="2">
@@ -51258,7 +51261,7 @@
         <v>21</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>74</v>
@@ -51275,16 +51278,16 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E438" t="s" s="2">
         <v>21</v>
@@ -51306,17 +51309,17 @@
         <v>21</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O438" s="2"/>
       <c r="P438" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q438" t="s" s="2">
         <v>21</v>
@@ -51365,7 +51368,7 @@
         <v>21</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>74</v>
@@ -51382,16 +51385,16 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E439" t="s" s="2">
         <v>21</v>
@@ -51416,14 +51419,14 @@
         <v>110</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>21</v>
@@ -51472,7 +51475,7 @@
         <v>21</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>74</v>
@@ -51481,7 +51484,7 @@
         <v>75</v>
       </c>
       <c r="AJ439" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK439" t="s" s="2">
         <v>93</v>
@@ -51489,13 +51492,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51592,13 +51595,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -51697,13 +51700,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -51729,16 +51732,16 @@
         <v>101</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O442" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P442" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q442" t="s" s="2">
         <v>21</v>
@@ -51766,10 +51769,10 @@
         <v>119</v>
       </c>
       <c r="Z442" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA442" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB442" t="s" s="2">
         <v>21</v>
@@ -51787,7 +51790,7 @@
         <v>21</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>74</v>
@@ -51804,13 +51807,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -51836,16 +51839,16 @@
         <v>384</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O443" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P443" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q443" t="s" s="2">
         <v>21</v>
@@ -51873,10 +51876,10 @@
         <v>336</v>
       </c>
       <c r="Z443" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA443" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB443" t="s" s="2">
         <v>21</v>
@@ -51894,7 +51897,7 @@
         <v>21</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>74</v>
@@ -51911,13 +51914,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -51943,29 +51946,29 @@
         <v>95</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O444" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P444" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q444" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R444" s="2"/>
       <c r="S444" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="T444" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U444" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V444" t="s" s="2">
         <v>21</v>
@@ -52001,7 +52004,7 @@
         <v>21</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>74</v>
@@ -52018,13 +52021,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -52050,13 +52053,13 @@
         <v>139</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O445" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P445" s="2"/>
       <c r="Q445" t="s" s="2">
@@ -52070,7 +52073,7 @@
         <v>21</v>
       </c>
       <c r="U445" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V445" t="s" s="2">
         <v>21</v>
@@ -52086,7 +52089,7 @@
       </c>
       <c r="Z445" s="2"/>
       <c r="AA445" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AB445" t="s" s="2">
         <v>21</v>
@@ -52104,7 +52107,7 @@
         <v>21</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>74</v>
@@ -52121,13 +52124,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -52153,10 +52156,10 @@
         <v>517</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
@@ -52207,7 +52210,7 @@
         <v>21</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>74</v>
@@ -52224,13 +52227,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -52256,13 +52259,13 @@
         <v>480</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O447" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P447" s="2"/>
       <c r="Q447" t="s" s="2">
@@ -52312,7 +52315,7 @@
         <v>21</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>74</v>
@@ -52329,16 +52332,16 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E448" t="s" s="2">
         <v>21</v>
@@ -52363,14 +52366,14 @@
         <v>110</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O448" s="2"/>
       <c r="P448" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q448" t="s" s="2">
         <v>21</v>
@@ -52419,7 +52422,7 @@
         <v>21</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>74</v>
@@ -52428,7 +52431,7 @@
         <v>75</v>
       </c>
       <c r="AJ448" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK448" t="s" s="2">
         <v>93</v>
@@ -52436,13 +52439,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -52539,13 +52542,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52644,13 +52647,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -52676,16 +52679,16 @@
         <v>101</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O451" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P451" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q451" t="s" s="2">
         <v>21</v>
@@ -52713,10 +52716,10 @@
         <v>119</v>
       </c>
       <c r="Z451" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA451" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB451" t="s" s="2">
         <v>21</v>
@@ -52734,7 +52737,7 @@
         <v>21</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
@@ -52751,13 +52754,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -52783,16 +52786,16 @@
         <v>384</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O452" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P452" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q452" t="s" s="2">
         <v>21</v>
@@ -52820,10 +52823,10 @@
         <v>336</v>
       </c>
       <c r="Z452" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA452" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>21</v>
@@ -52841,7 +52844,7 @@
         <v>21</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
@@ -52858,13 +52861,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -52890,29 +52893,29 @@
         <v>95</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O453" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P453" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R453" s="2"/>
       <c r="S453" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="T453" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U453" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V453" t="s" s="2">
         <v>21</v>
@@ -52948,7 +52951,7 @@
         <v>21</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
@@ -52965,13 +52968,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -52997,13 +53000,13 @@
         <v>139</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O454" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P454" s="2"/>
       <c r="Q454" t="s" s="2">
@@ -53017,7 +53020,7 @@
         <v>21</v>
       </c>
       <c r="U454" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V454" t="s" s="2">
         <v>21</v>
@@ -53053,7 +53056,7 @@
         <v>21</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
@@ -53070,13 +53073,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -53102,10 +53105,10 @@
         <v>517</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
@@ -53156,7 +53159,7 @@
         <v>21</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -53173,13 +53176,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53205,13 +53208,13 @@
         <v>480</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O456" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P456" s="2"/>
       <c r="Q456" t="s" s="2">
@@ -53261,7 +53264,7 @@
         <v>21</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
@@ -53278,16 +53281,16 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E457" t="s" s="2">
         <v>21</v>
@@ -53309,17 +53312,17 @@
         <v>21</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O457" s="2"/>
       <c r="P457" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q457" t="s" s="2">
         <v>21</v>
@@ -53368,7 +53371,7 @@
         <v>21</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>74</v>
@@ -53385,13 +53388,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53417,67 +53420,67 @@
         <v>705</v>
       </c>
       <c r="M458" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="O458" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="P458" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="Q458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R458" t="s" s="2">
+        <v>1349</v>
+      </c>
+      <c r="S458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG458" t="s" s="2">
         <v>1344</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>1345</v>
-      </c>
-      <c r="O458" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="P458" t="s" s="2">
-        <v>1347</v>
-      </c>
-      <c r="Q458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R458" t="s" s="2">
-        <v>1348</v>
-      </c>
-      <c r="S458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="T458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="U458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="V458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="W458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="X458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AG458" t="s" s="2">
-        <v>1343</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>74</v>
@@ -53494,13 +53497,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -53526,16 +53529,16 @@
         <v>384</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="O459" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="P459" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>21</v>
@@ -53564,7 +53567,7 @@
       </c>
       <c r="Z459" s="2"/>
       <c r="AA459" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AB459" t="s" s="2">
         <v>21</v>
@@ -53582,7 +53585,7 @@
         <v>21</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>74</v>
@@ -53599,13 +53602,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53631,16 +53634,16 @@
         <v>139</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="O460" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="P460" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q460" t="s" s="2">
         <v>21</v>
@@ -53689,7 +53692,7 @@
         <v>21</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>74</v>
@@ -53698,7 +53701,7 @@
         <v>81</v>
       </c>
       <c r="AJ460" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK460" t="s" s="2">
         <v>93</v>
@@ -53706,13 +53709,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -53738,16 +53741,16 @@
         <v>139</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O461" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P461" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="Q461" t="s" s="2">
         <v>21</v>
@@ -53796,7 +53799,7 @@
         <v>21</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
@@ -53813,13 +53816,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -53842,19 +53845,19 @@
         <v>21</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="O462" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="P462" t="s" s="2">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="Q462" t="s" s="2">
         <v>21</v>
@@ -53903,7 +53906,7 @@
         <v>21</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -53912,21 +53915,21 @@
         <v>75</v>
       </c>
       <c r="AJ462" t="s" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AK462" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -53949,19 +53952,19 @@
         <v>21</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>21</v>
@@ -54010,7 +54013,7 @@
         <v>21</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>74</v>
@@ -54019,21 +54022,21 @@
         <v>75</v>
       </c>
       <c r="AJ463" t="s" s="2">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AK463" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -54059,14 +54062,14 @@
         <v>480</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" t="s" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="Q464" t="s" s="2">
         <v>21</v>
@@ -54115,7 +54118,7 @@
         <v>21</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>74</v>
@@ -54132,13 +54135,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -54164,16 +54167,16 @@
         <v>134</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="O465" t="s" s="2">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="P465" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="Q465" t="s" s="2">
         <v>21</v>
@@ -54222,7 +54225,7 @@
         <v>21</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>74</v>
@@ -54239,13 +54242,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54342,13 +54345,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54447,13 +54450,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54554,13 +54557,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -54586,14 +54589,14 @@
         <v>384</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="O469" s="2"/>
       <c r="P469" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>21</v>
@@ -54621,10 +54624,10 @@
         <v>336</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AA469" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AB469" t="s" s="2">
         <v>21</v>
@@ -54642,7 +54645,7 @@
         <v>21</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>74</v>
@@ -54659,13 +54662,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54688,17 +54691,17 @@
         <v>21</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="Q470" t="s" s="2">
         <v>21</v>
@@ -54747,7 +54750,7 @@
         <v>21</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>74</v>
@@ -54764,13 +54767,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -54793,17 +54796,17 @@
         <v>21</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="Q471" t="s" s="2">
         <v>21</v>
@@ -54852,7 +54855,7 @@
         <v>21</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>74</v>
@@ -54869,13 +54872,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -54898,17 +54901,17 @@
         <v>21</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" t="s" s="2">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="Q472" t="s" s="2">
         <v>21</v>
@@ -54957,7 +54960,7 @@
         <v>21</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>74</v>
@@ -54974,13 +54977,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -55003,17 +55006,17 @@
         <v>21</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="O473" s="2"/>
       <c r="P473" t="s" s="2">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="Q473" t="s" s="2">
         <v>21</v>
@@ -55062,7 +55065,7 @@
         <v>21</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>74</v>

--- a/ig/conditionlist/all-profiles.xlsx
+++ b/ig/conditionlist/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15839" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15839" uniqueCount="1418">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T10:26:02+01:00</t>
+    <t>2025-05-13T06:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2956,13 +2956,16 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
   </si>
   <si>
     <t>DocumentReference.extension.value[x]:valueString</t>
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>DocumentReference.extension:homeCommunityid</t>
@@ -3215,7 +3218,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
   </si>
   <si>
     <t>DocumentReference.type.id</t>
@@ -3667,7 +3670,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
   </si>
   <si>
     <t>DocumentReference.context</t>
@@ -5202,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="87">
@@ -5210,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="88">
@@ -5226,7 +5229,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="90">
@@ -5286,7 +5289,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="98">
@@ -5322,7 +5325,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="103">
@@ -5330,7 +5333,7 @@
         <v>32</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104">
@@ -5365,17 +5368,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="70.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="59.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="32.3984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.1171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="52.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5384,21 +5387,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="54.484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="90.01953125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="88.46875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="46.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="77.69921875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="78.32421875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -35663,7 +35666,7 @@
         <v>21</v>
       </c>
       <c r="T289" t="s" s="2">
-        <v>7</v>
+        <v>948</v>
       </c>
       <c r="U289" t="s" s="2">
         <v>21</v>
@@ -35722,13 +35725,13 @@
         <v>914</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>929</v>
       </c>
       <c r="D290" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E290" t="s" s="2">
         <v>21</v>
@@ -35747,16 +35750,16 @@
         <v>21</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
@@ -35827,13 +35830,13 @@
         <v>914</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C291" t="s" s="2">
         <v>929</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E291" t="s" s="2">
         <v>21</v>
@@ -35852,16 +35855,16 @@
         <v>21</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
@@ -35932,10 +35935,10 @@
         <v>914</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36039,10 +36042,10 @@
         <v>914</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36068,16 +36071,16 @@
         <v>110</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O293" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P293" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q293" t="s" s="2">
         <v>21</v>
@@ -36126,7 +36129,7 @@
         <v>21</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>74</v>
@@ -36146,10 +36149,10 @@
         <v>914</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36249,10 +36252,10 @@
         <v>914</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -36354,10 +36357,10 @@
         <v>914</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36383,16 +36386,16 @@
         <v>101</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P296" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q296" t="s" s="2">
         <v>21</v>
@@ -36420,10 +36423,10 @@
         <v>119</v>
       </c>
       <c r="Z296" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA296" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB296" t="s" s="2">
         <v>21</v>
@@ -36441,7 +36444,7 @@
         <v>21</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>74</v>
@@ -36461,10 +36464,10 @@
         <v>914</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36490,16 +36493,16 @@
         <v>384</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P297" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>21</v>
@@ -36527,10 +36530,10 @@
         <v>336</v>
       </c>
       <c r="Z297" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA297" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB297" t="s" s="2">
         <v>21</v>
@@ -36548,7 +36551,7 @@
         <v>21</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>74</v>
@@ -36568,10 +36571,10 @@
         <v>914</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36597,16 +36600,16 @@
         <v>95</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O298" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P298" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q298" t="s" s="2">
         <v>21</v>
@@ -36619,7 +36622,7 @@
         <v>21</v>
       </c>
       <c r="U298" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V298" t="s" s="2">
         <v>21</v>
@@ -36655,7 +36658,7 @@
         <v>21</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -36675,10 +36678,10 @@
         <v>914</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36704,13 +36707,13 @@
         <v>139</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -36724,7 +36727,7 @@
         <v>21</v>
       </c>
       <c r="U299" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V299" t="s" s="2">
         <v>21</v>
@@ -36760,7 +36763,7 @@
         <v>21</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
@@ -36780,10 +36783,10 @@
         <v>914</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36809,10 +36812,10 @@
         <v>517</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
@@ -36863,7 +36866,7 @@
         <v>21</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
@@ -36883,10 +36886,10 @@
         <v>914</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36912,13 +36915,13 @@
         <v>480</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
@@ -36968,7 +36971,7 @@
         <v>21</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>74</v>
@@ -36988,10 +36991,10 @@
         <v>914</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37017,10 +37020,10 @@
         <v>110</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
@@ -37071,7 +37074,7 @@
         <v>21</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>74</v>
@@ -37083,7 +37086,7 @@
         <v>21</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="303">
@@ -37091,10 +37094,10 @@
         <v>914</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -37194,10 +37197,10 @@
         <v>914</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37299,10 +37302,10 @@
         <v>914</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37328,16 +37331,16 @@
         <v>101</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P305" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q305" t="s" s="2">
         <v>21</v>
@@ -37365,10 +37368,10 @@
         <v>119</v>
       </c>
       <c r="Z305" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA305" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB305" t="s" s="2">
         <v>21</v>
@@ -37386,7 +37389,7 @@
         <v>21</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>74</v>
@@ -37406,10 +37409,10 @@
         <v>914</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37435,16 +37438,16 @@
         <v>384</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O306" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P306" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q306" t="s" s="2">
         <v>21</v>
@@ -37472,10 +37475,10 @@
         <v>336</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>21</v>
@@ -37493,7 +37496,7 @@
         <v>21</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>74</v>
@@ -37513,10 +37516,10 @@
         <v>914</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37542,16 +37545,16 @@
         <v>95</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O307" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P307" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q307" t="s" s="2">
         <v>21</v>
@@ -37564,7 +37567,7 @@
         <v>21</v>
       </c>
       <c r="U307" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V307" t="s" s="2">
         <v>21</v>
@@ -37600,7 +37603,7 @@
         <v>21</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>74</v>
@@ -37620,10 +37623,10 @@
         <v>914</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37649,13 +37652,13 @@
         <v>139</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
@@ -37669,7 +37672,7 @@
         <v>21</v>
       </c>
       <c r="U308" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V308" t="s" s="2">
         <v>21</v>
@@ -37705,7 +37708,7 @@
         <v>21</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>74</v>
@@ -37725,10 +37728,10 @@
         <v>914</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37754,10 +37757,10 @@
         <v>517</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
@@ -37808,7 +37811,7 @@
         <v>21</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>74</v>
@@ -37828,10 +37831,10 @@
         <v>914</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37857,13 +37860,13 @@
         <v>480</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -37913,7 +37916,7 @@
         <v>21</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>74</v>
@@ -37933,10 +37936,10 @@
         <v>914</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37962,13 +37965,13 @@
         <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O311" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -37997,10 +38000,10 @@
         <v>119</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>21</v>
@@ -38018,7 +38021,7 @@
         <v>21</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>81</v>
@@ -38038,10 +38041,10 @@
         <v>914</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38070,10 +38073,10 @@
         <v>376</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O312" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
@@ -38102,7 +38105,7 @@
         <v>119</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AA312" t="s" s="2">
         <v>382</v>
@@ -38123,7 +38126,7 @@
         <v>21</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>74</v>
@@ -38143,10 +38146,10 @@
         <v>914</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38172,13 +38175,13 @@
         <v>384</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
@@ -38208,7 +38211,7 @@
       </c>
       <c r="Z313" s="2"/>
       <c r="AA313" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>21</v>
@@ -38226,7 +38229,7 @@
         <v>21</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>74</v>
@@ -38246,10 +38249,10 @@
         <v>914</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38349,10 +38352,10 @@
         <v>914</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38454,10 +38457,10 @@
         <v>914</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38561,10 +38564,10 @@
         <v>914</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38664,10 +38667,10 @@
         <v>914</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38769,10 +38772,10 @@
         <v>914</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38876,10 +38879,10 @@
         <v>914</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38981,10 +38984,10 @@
         <v>914</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39086,10 +39089,10 @@
         <v>914</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -39191,10 +39194,10 @@
         <v>914</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -39298,10 +39301,10 @@
         <v>914</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39405,14 +39408,14 @@
         <v>914</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" t="s" s="2">
@@ -39434,13 +39437,13 @@
         <v>384</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O325" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
@@ -39470,7 +39473,7 @@
       </c>
       <c r="Z325" s="2"/>
       <c r="AA325" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>21</v>
@@ -39488,7 +39491,7 @@
         <v>21</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>74</v>
@@ -39508,10 +39511,10 @@
         <v>914</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39611,10 +39614,10 @@
         <v>914</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39716,10 +39719,10 @@
         <v>914</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39823,10 +39826,10 @@
         <v>914</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39926,10 +39929,10 @@
         <v>914</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40031,10 +40034,10 @@
         <v>914</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -40138,10 +40141,10 @@
         <v>914</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -40243,10 +40246,10 @@
         <v>914</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40348,10 +40351,10 @@
         <v>914</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40453,10 +40456,10 @@
         <v>914</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40560,10 +40563,10 @@
         <v>914</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40667,10 +40670,10 @@
         <v>914</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40693,13 +40696,13 @@
         <v>82</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
@@ -40750,7 +40753,7 @@
         <v>21</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>74</v>
@@ -40770,14 +40773,14 @@
         <v>914</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
@@ -40799,13 +40802,13 @@
         <v>123</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40855,7 +40858,7 @@
         <v>21</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>74</v>
@@ -40875,10 +40878,10 @@
         <v>914</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40901,16 +40904,16 @@
         <v>82</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
@@ -40958,7 +40961,7 @@
         <v>436</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>74</v>
@@ -40978,10 +40981,10 @@
         <v>914</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D340" t="s" s="2">
         <v>438</v>
@@ -41006,16 +41009,16 @@
         <v>82</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" t="s" s="2">
@@ -41065,7 +41068,7 @@
         <v>21</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>74</v>
@@ -41085,10 +41088,10 @@
         <v>914</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D341" t="s" s="2">
         <v>442</v>
@@ -41113,16 +41116,16 @@
         <v>82</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -41172,7 +41175,7 @@
         <v>21</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>74</v>
@@ -41192,10 +41195,10 @@
         <v>914</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41218,16 +41221,16 @@
         <v>21</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O342" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
@@ -41277,7 +41280,7 @@
         <v>21</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>74</v>
@@ -41297,10 +41300,10 @@
         <v>914</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41326,13 +41329,13 @@
         <v>480</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
@@ -41382,7 +41385,7 @@
         <v>21</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>74</v>
@@ -41402,10 +41405,10 @@
         <v>914</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41431,13 +41434,13 @@
         <v>134</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
@@ -41487,7 +41490,7 @@
         <v>21</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>74</v>
@@ -41507,10 +41510,10 @@
         <v>914</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41610,10 +41613,10 @@
         <v>914</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41715,10 +41718,10 @@
         <v>914</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41822,10 +41825,10 @@
         <v>914</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41854,7 +41857,7 @@
         <v>493</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>495</v>
@@ -41907,7 +41910,7 @@
         <v>21</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>81</v>
@@ -41927,10 +41930,10 @@
         <v>914</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41953,13 +41956,13 @@
         <v>82</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M349" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -42010,7 +42013,7 @@
         <v>21</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>81</v>
@@ -42030,10 +42033,10 @@
         <v>914</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -42059,16 +42062,16 @@
         <v>139</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O350" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="P350" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>21</v>
@@ -42117,7 +42120,7 @@
         <v>21</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>74</v>
@@ -42137,10 +42140,10 @@
         <v>914</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42166,16 +42169,16 @@
         <v>384</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="P351" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q351" t="s" s="2">
         <v>21</v>
@@ -42224,7 +42227,7 @@
         <v>21</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>74</v>
@@ -42244,10 +42247,10 @@
         <v>914</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -42273,10 +42276,10 @@
         <v>134</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
@@ -42327,7 +42330,7 @@
         <v>21</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>81</v>
@@ -42347,10 +42350,10 @@
         <v>914</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42450,10 +42453,10 @@
         <v>914</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -42555,10 +42558,10 @@
         <v>914</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42662,10 +42665,10 @@
         <v>914</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42688,13 +42691,13 @@
         <v>82</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42745,7 +42748,7 @@
         <v>21</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>81</v>
@@ -42765,10 +42768,10 @@
         <v>914</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42868,10 +42871,10 @@
         <v>914</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42973,10 +42976,10 @@
         <v>914</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43002,14 +43005,14 @@
         <v>101</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>21</v>
@@ -43022,7 +43025,7 @@
         <v>21</v>
       </c>
       <c r="U359" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="V359" t="s" s="2">
         <v>21</v>
@@ -43038,7 +43041,7 @@
       </c>
       <c r="Z359" s="2"/>
       <c r="AA359" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AB359" t="s" s="2">
         <v>21</v>
@@ -43056,7 +43059,7 @@
         <v>21</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>74</v>
@@ -43076,10 +43079,10 @@
         <v>914</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43105,14 +43108,14 @@
         <v>101</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>21</v>
@@ -43125,7 +43128,7 @@
         <v>21</v>
       </c>
       <c r="U360" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="V360" t="s" s="2">
         <v>21</v>
@@ -43141,7 +43144,7 @@
       </c>
       <c r="Z360" s="2"/>
       <c r="AA360" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>21</v>
@@ -43159,7 +43162,7 @@
         <v>21</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>74</v>
@@ -43179,10 +43182,10 @@
         <v>914</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43205,19 +43208,19 @@
         <v>21</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P361" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>21</v>
@@ -43266,7 +43269,7 @@
         <v>21</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>74</v>
@@ -43286,10 +43289,10 @@
         <v>914</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43312,19 +43315,19 @@
         <v>82</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>21</v>
@@ -43337,7 +43340,7 @@
         <v>21</v>
       </c>
       <c r="U362" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="V362" t="s" s="2">
         <v>21</v>
@@ -43373,7 +43376,7 @@
         <v>21</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>74</v>
@@ -43393,10 +43396,10 @@
         <v>914</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -43422,16 +43425,16 @@
         <v>128</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P363" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>21</v>
@@ -43480,7 +43483,7 @@
         <v>21</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>74</v>
@@ -43500,10 +43503,10 @@
         <v>914</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43526,19 +43529,19 @@
         <v>82</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="P364" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q364" t="s" s="2">
         <v>21</v>
@@ -43587,7 +43590,7 @@
         <v>21</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>74</v>
@@ -43607,10 +43610,10 @@
         <v>914</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43636,14 +43639,14 @@
         <v>139</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="O365" s="2"/>
       <c r="P365" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>21</v>
@@ -43656,7 +43659,7 @@
         <v>21</v>
       </c>
       <c r="U365" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="V365" t="s" s="2">
         <v>21</v>
@@ -43692,7 +43695,7 @@
         <v>21</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>74</v>
@@ -43712,10 +43715,10 @@
         <v>914</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43741,14 +43744,14 @@
         <v>425</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="O366" s="2"/>
       <c r="P366" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="Q366" t="s" s="2">
         <v>21</v>
@@ -43797,7 +43800,7 @@
         <v>21</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>74</v>
@@ -43817,10 +43820,10 @@
         <v>914</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43846,13 +43849,13 @@
         <v>332</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -43882,7 +43885,7 @@
       </c>
       <c r="Z367" s="2"/>
       <c r="AA367" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="AB367" t="s" s="2">
         <v>21</v>
@@ -43900,7 +43903,7 @@
         <v>21</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>74</v>
@@ -43920,10 +43923,10 @@
         <v>914</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43949,13 +43952,13 @@
         <v>134</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="P368" s="2"/>
       <c r="Q368" t="s" s="2">
@@ -44005,7 +44008,7 @@
         <v>21</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>74</v>
@@ -44025,10 +44028,10 @@
         <v>914</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44128,10 +44131,10 @@
         <v>914</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44233,10 +44236,10 @@
         <v>914</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44340,10 +44343,10 @@
         <v>914</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44366,13 +44369,13 @@
         <v>21</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" s="2"/>
@@ -44423,7 +44426,7 @@
         <v>21</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>74</v>
@@ -44443,10 +44446,10 @@
         <v>914</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44472,13 +44475,13 @@
         <v>384</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="P373" s="2"/>
       <c r="Q373" t="s" s="2">
@@ -44528,7 +44531,7 @@
         <v>21</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>74</v>
@@ -44548,10 +44551,10 @@
         <v>914</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -44651,10 +44654,10 @@
         <v>914</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -44756,10 +44759,10 @@
         <v>914</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44863,10 +44866,10 @@
         <v>914</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44966,10 +44969,10 @@
         <v>914</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -45071,10 +45074,10 @@
         <v>914</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45178,10 +45181,10 @@
         <v>914</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45283,10 +45286,10 @@
         <v>914</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -45388,10 +45391,10 @@
         <v>914</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45493,10 +45496,10 @@
         <v>914</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45600,10 +45603,10 @@
         <v>914</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45707,10 +45710,10 @@
         <v>914</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -45736,10 +45739,10 @@
         <v>517</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
@@ -45790,7 +45793,7 @@
         <v>21</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>74</v>
@@ -45810,10 +45813,10 @@
         <v>914</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -45913,10 +45916,10 @@
         <v>914</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46018,10 +46021,10 @@
         <v>914</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -46123,10 +46126,10 @@
         <v>914</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46230,10 +46233,10 @@
         <v>914</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46259,10 +46262,10 @@
         <v>384</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
@@ -46292,10 +46295,10 @@
         <v>344</v>
       </c>
       <c r="Z390" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AA390" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="AB390" t="s" s="2">
         <v>21</v>
@@ -46313,7 +46316,7 @@
         <v>21</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>74</v>
@@ -46333,10 +46336,10 @@
         <v>914</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -46436,10 +46439,10 @@
         <v>914</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46541,10 +46544,10 @@
         <v>914</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -46648,10 +46651,10 @@
         <v>914</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46751,10 +46754,10 @@
         <v>914</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -46856,10 +46859,10 @@
         <v>914</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46923,7 +46926,7 @@
       </c>
       <c r="Z396" s="2"/>
       <c r="AA396" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AB396" t="s" s="2">
         <v>21</v>
@@ -46961,10 +46964,10 @@
         <v>914</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -47066,10 +47069,10 @@
         <v>914</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47171,10 +47174,10 @@
         <v>914</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47276,10 +47279,10 @@
         <v>914</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47383,10 +47386,10 @@
         <v>914</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47490,10 +47493,10 @@
         <v>914</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47519,16 +47522,16 @@
         <v>384</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="O402" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="P402" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="Q402" t="s" s="2">
         <v>21</v>
@@ -47556,10 +47559,10 @@
         <v>344</v>
       </c>
       <c r="Z402" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="AA402" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AB402" t="s" s="2">
         <v>21</v>
@@ -47577,7 +47580,7 @@
         <v>21</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -47597,10 +47600,10 @@
         <v>914</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -47700,10 +47703,10 @@
         <v>914</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47805,10 +47808,10 @@
         <v>914</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -47912,10 +47915,10 @@
         <v>914</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -48015,10 +48018,10 @@
         <v>914</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48120,10 +48123,10 @@
         <v>914</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48187,7 +48190,7 @@
       </c>
       <c r="Z408" s="2"/>
       <c r="AA408" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AB408" t="s" s="2">
         <v>21</v>
@@ -48225,10 +48228,10 @@
         <v>914</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48330,10 +48333,10 @@
         <v>914</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48435,10 +48438,10 @@
         <v>914</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -48540,10 +48543,10 @@
         <v>914</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48647,10 +48650,10 @@
         <v>914</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -48754,10 +48757,10 @@
         <v>914</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -48780,13 +48783,13 @@
         <v>21</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -48837,7 +48840,7 @@
         <v>21</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -48857,10 +48860,10 @@
         <v>914</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -48886,13 +48889,13 @@
         <v>535</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="P415" s="2"/>
       <c r="Q415" t="s" s="2">
@@ -48942,7 +48945,7 @@
         <v>21</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -48959,13 +48962,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -48991,10 +48994,10 @@
         <v>76</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -49045,7 +49048,7 @@
         <v>21</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -49057,18 +49060,18 @@
         <v>21</v>
       </c>
       <c r="AK416" t="s" s="2">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -49167,13 +49170,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49270,13 +49273,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -49375,13 +49378,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49480,13 +49483,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -49585,13 +49588,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49690,13 +49693,13 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -49795,13 +49798,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -49902,13 +49905,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -49934,14 +49937,14 @@
         <v>110</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O425" s="2"/>
       <c r="P425" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q425" t="s" s="2">
         <v>21</v>
@@ -49988,7 +49991,7 @@
         <v>168</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>74</v>
@@ -49997,7 +50000,7 @@
         <v>75</v>
       </c>
       <c r="AJ425" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK425" t="s" s="2">
         <v>93</v>
@@ -50005,16 +50008,16 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E426" t="s" s="2">
         <v>21</v>
@@ -50036,17 +50039,17 @@
         <v>21</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O426" s="2"/>
       <c r="P426" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q426" t="s" s="2">
         <v>21</v>
@@ -50095,7 +50098,7 @@
         <v>21</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>74</v>
@@ -50112,16 +50115,16 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E427" t="s" s="2">
         <v>21</v>
@@ -50143,17 +50146,17 @@
         <v>82</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O427" s="2"/>
       <c r="P427" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q427" t="s" s="2">
         <v>21</v>
@@ -50202,7 +50205,7 @@
         <v>21</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>74</v>
@@ -50219,16 +50222,16 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D428" t="s" s="2">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E428" t="s" s="2">
         <v>21</v>
@@ -50250,17 +50253,17 @@
         <v>21</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q428" t="s" s="2">
         <v>21</v>
@@ -50309,7 +50312,7 @@
         <v>21</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>74</v>
@@ -50326,16 +50329,16 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E429" t="s" s="2">
         <v>21</v>
@@ -50360,14 +50363,14 @@
         <v>110</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>21</v>
@@ -50416,7 +50419,7 @@
         <v>21</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>74</v>
@@ -50425,7 +50428,7 @@
         <v>75</v>
       </c>
       <c r="AJ429" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK429" t="s" s="2">
         <v>93</v>
@@ -50433,13 +50436,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50536,13 +50539,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50641,13 +50644,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -50673,16 +50676,16 @@
         <v>101</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P432" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q432" t="s" s="2">
         <v>21</v>
@@ -50710,10 +50713,10 @@
         <v>119</v>
       </c>
       <c r="Z432" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA432" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB432" t="s" s="2">
         <v>21</v>
@@ -50731,7 +50734,7 @@
         <v>21</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>74</v>
@@ -50748,13 +50751,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -50780,16 +50783,16 @@
         <v>384</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P433" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q433" t="s" s="2">
         <v>21</v>
@@ -50817,10 +50820,10 @@
         <v>336</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA433" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB433" t="s" s="2">
         <v>21</v>
@@ -50838,7 +50841,7 @@
         <v>21</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>74</v>
@@ -50855,13 +50858,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -50887,29 +50890,29 @@
         <v>95</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O434" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P434" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q434" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R434" s="2"/>
       <c r="S434" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="T434" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U434" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V434" t="s" s="2">
         <v>21</v>
@@ -50945,7 +50948,7 @@
         <v>21</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>74</v>
@@ -50962,13 +50965,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -50994,13 +50997,13 @@
         <v>139</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O435" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P435" s="2"/>
       <c r="Q435" t="s" s="2">
@@ -51014,7 +51017,7 @@
         <v>21</v>
       </c>
       <c r="U435" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V435" t="s" s="2">
         <v>21</v>
@@ -51050,7 +51053,7 @@
         <v>21</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>74</v>
@@ -51067,13 +51070,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -51099,10 +51102,10 @@
         <v>517</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
@@ -51153,7 +51156,7 @@
         <v>21</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>74</v>
@@ -51170,13 +51173,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51202,13 +51205,13 @@
         <v>480</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O437" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P437" s="2"/>
       <c r="Q437" t="s" s="2">
@@ -51258,7 +51261,7 @@
         <v>21</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>74</v>
@@ -51275,16 +51278,16 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E438" t="s" s="2">
         <v>21</v>
@@ -51306,17 +51309,17 @@
         <v>21</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O438" s="2"/>
       <c r="P438" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q438" t="s" s="2">
         <v>21</v>
@@ -51365,7 +51368,7 @@
         <v>21</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>74</v>
@@ -51382,16 +51385,16 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E439" t="s" s="2">
         <v>21</v>
@@ -51416,14 +51419,14 @@
         <v>110</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>21</v>
@@ -51472,7 +51475,7 @@
         <v>21</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>74</v>
@@ -51481,7 +51484,7 @@
         <v>75</v>
       </c>
       <c r="AJ439" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK439" t="s" s="2">
         <v>93</v>
@@ -51489,13 +51492,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51592,13 +51595,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -51697,13 +51700,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -51729,16 +51732,16 @@
         <v>101</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O442" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P442" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q442" t="s" s="2">
         <v>21</v>
@@ -51766,10 +51769,10 @@
         <v>119</v>
       </c>
       <c r="Z442" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA442" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB442" t="s" s="2">
         <v>21</v>
@@ -51787,7 +51790,7 @@
         <v>21</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>74</v>
@@ -51804,13 +51807,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -51836,16 +51839,16 @@
         <v>384</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O443" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P443" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q443" t="s" s="2">
         <v>21</v>
@@ -51873,10 +51876,10 @@
         <v>336</v>
       </c>
       <c r="Z443" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA443" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB443" t="s" s="2">
         <v>21</v>
@@ -51894,7 +51897,7 @@
         <v>21</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>74</v>
@@ -51911,13 +51914,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -51943,29 +51946,29 @@
         <v>95</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O444" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P444" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q444" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R444" s="2"/>
       <c r="S444" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="T444" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U444" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V444" t="s" s="2">
         <v>21</v>
@@ -52001,7 +52004,7 @@
         <v>21</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>74</v>
@@ -52018,13 +52021,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -52050,13 +52053,13 @@
         <v>139</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O445" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P445" s="2"/>
       <c r="Q445" t="s" s="2">
@@ -52070,7 +52073,7 @@
         <v>21</v>
       </c>
       <c r="U445" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V445" t="s" s="2">
         <v>21</v>
@@ -52086,7 +52089,7 @@
       </c>
       <c r="Z445" s="2"/>
       <c r="AA445" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="AB445" t="s" s="2">
         <v>21</v>
@@ -52104,7 +52107,7 @@
         <v>21</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>74</v>
@@ -52121,13 +52124,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -52153,10 +52156,10 @@
         <v>517</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
@@ -52207,7 +52210,7 @@
         <v>21</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>74</v>
@@ -52224,13 +52227,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -52256,13 +52259,13 @@
         <v>480</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O447" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P447" s="2"/>
       <c r="Q447" t="s" s="2">
@@ -52312,7 +52315,7 @@
         <v>21</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>74</v>
@@ -52329,16 +52332,16 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E448" t="s" s="2">
         <v>21</v>
@@ -52363,14 +52366,14 @@
         <v>110</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O448" s="2"/>
       <c r="P448" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q448" t="s" s="2">
         <v>21</v>
@@ -52419,7 +52422,7 @@
         <v>21</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>74</v>
@@ -52428,7 +52431,7 @@
         <v>75</v>
       </c>
       <c r="AJ448" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK448" t="s" s="2">
         <v>93</v>
@@ -52436,13 +52439,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -52539,13 +52542,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52644,13 +52647,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -52676,16 +52679,16 @@
         <v>101</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O451" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P451" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q451" t="s" s="2">
         <v>21</v>
@@ -52713,10 +52716,10 @@
         <v>119</v>
       </c>
       <c r="Z451" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AA451" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AB451" t="s" s="2">
         <v>21</v>
@@ -52734,7 +52737,7 @@
         <v>21</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
@@ -52751,13 +52754,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -52783,16 +52786,16 @@
         <v>384</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O452" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P452" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q452" t="s" s="2">
         <v>21</v>
@@ -52820,10 +52823,10 @@
         <v>336</v>
       </c>
       <c r="Z452" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA452" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>21</v>
@@ -52841,7 +52844,7 @@
         <v>21</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
@@ -52858,13 +52861,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -52890,29 +52893,29 @@
         <v>95</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O453" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P453" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R453" s="2"/>
       <c r="S453" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="T453" t="s" s="2">
         <v>21</v>
       </c>
       <c r="U453" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="V453" t="s" s="2">
         <v>21</v>
@@ -52948,7 +52951,7 @@
         <v>21</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
@@ -52965,13 +52968,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -52997,13 +53000,13 @@
         <v>139</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O454" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P454" s="2"/>
       <c r="Q454" t="s" s="2">
@@ -53017,7 +53020,7 @@
         <v>21</v>
       </c>
       <c r="U454" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V454" t="s" s="2">
         <v>21</v>
@@ -53053,7 +53056,7 @@
         <v>21</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
@@ -53070,13 +53073,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -53102,10 +53105,10 @@
         <v>517</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
@@ -53156,7 +53159,7 @@
         <v>21</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -53173,13 +53176,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53205,13 +53208,13 @@
         <v>480</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O456" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P456" s="2"/>
       <c r="Q456" t="s" s="2">
@@ -53261,7 +53264,7 @@
         <v>21</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
@@ -53278,16 +53281,16 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E457" t="s" s="2">
         <v>21</v>
@@ -53309,17 +53312,17 @@
         <v>21</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O457" s="2"/>
       <c r="P457" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="Q457" t="s" s="2">
         <v>21</v>
@@ -53368,7 +53371,7 @@
         <v>21</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>74</v>
@@ -53385,13 +53388,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53417,67 +53420,67 @@
         <v>705</v>
       </c>
       <c r="M458" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>1346</v>
+      </c>
+      <c r="O458" t="s" s="2">
+        <v>1347</v>
+      </c>
+      <c r="P458" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="Q458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R458" t="s" s="2">
+        <v>1349</v>
+      </c>
+      <c r="S458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG458" t="s" s="2">
         <v>1344</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>1345</v>
-      </c>
-      <c r="O458" t="s" s="2">
-        <v>1346</v>
-      </c>
-      <c r="P458" t="s" s="2">
-        <v>1347</v>
-      </c>
-      <c r="Q458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R458" t="s" s="2">
-        <v>1348</v>
-      </c>
-      <c r="S458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="T458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="U458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="V458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="W458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="X458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF458" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AG458" t="s" s="2">
-        <v>1343</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>74</v>
@@ -53494,13 +53497,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -53526,16 +53529,16 @@
         <v>384</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="O459" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="P459" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>21</v>
@@ -53564,7 +53567,7 @@
       </c>
       <c r="Z459" s="2"/>
       <c r="AA459" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AB459" t="s" s="2">
         <v>21</v>
@@ -53582,7 +53585,7 @@
         <v>21</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>74</v>
@@ -53599,13 +53602,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53631,16 +53634,16 @@
         <v>139</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="O460" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="P460" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q460" t="s" s="2">
         <v>21</v>
@@ -53689,7 +53692,7 @@
         <v>21</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>74</v>
@@ -53698,7 +53701,7 @@
         <v>81</v>
       </c>
       <c r="AJ460" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="AK460" t="s" s="2">
         <v>93</v>
@@ -53706,13 +53709,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -53738,16 +53741,16 @@
         <v>139</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O461" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P461" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="Q461" t="s" s="2">
         <v>21</v>
@@ -53796,7 +53799,7 @@
         <v>21</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
@@ -53813,13 +53816,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -53842,19 +53845,19 @@
         <v>21</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="O462" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="P462" t="s" s="2">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="Q462" t="s" s="2">
         <v>21</v>
@@ -53903,7 +53906,7 @@
         <v>21</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -53912,21 +53915,21 @@
         <v>75</v>
       </c>
       <c r="AJ462" t="s" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AK462" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -53949,19 +53952,19 @@
         <v>21</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>21</v>
@@ -54010,7 +54013,7 @@
         <v>21</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>74</v>
@@ -54019,21 +54022,21 @@
         <v>75</v>
       </c>
       <c r="AJ463" t="s" s="2">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AK463" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -54059,14 +54062,14 @@
         <v>480</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" t="s" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="Q464" t="s" s="2">
         <v>21</v>
@@ -54115,7 +54118,7 @@
         <v>21</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>74</v>
@@ -54132,13 +54135,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -54164,16 +54167,16 @@
         <v>134</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="O465" t="s" s="2">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="P465" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="Q465" t="s" s="2">
         <v>21</v>
@@ -54222,7 +54225,7 @@
         <v>21</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>74</v>
@@ -54239,13 +54242,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54342,13 +54345,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54447,13 +54450,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54554,13 +54557,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -54586,14 +54589,14 @@
         <v>384</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="O469" s="2"/>
       <c r="P469" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>21</v>
@@ -54621,10 +54624,10 @@
         <v>336</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AA469" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AB469" t="s" s="2">
         <v>21</v>
@@ -54642,7 +54645,7 @@
         <v>21</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>74</v>
@@ -54659,13 +54662,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54688,17 +54691,17 @@
         <v>21</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="Q470" t="s" s="2">
         <v>21</v>
@@ -54747,7 +54750,7 @@
         <v>21</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>74</v>
@@ -54764,13 +54767,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -54793,17 +54796,17 @@
         <v>21</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="Q471" t="s" s="2">
         <v>21</v>
@@ -54852,7 +54855,7 @@
         <v>21</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>74</v>
@@ -54869,13 +54872,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -54898,17 +54901,17 @@
         <v>21</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" t="s" s="2">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="Q472" t="s" s="2">
         <v>21</v>
@@ -54957,7 +54960,7 @@
         <v>21</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>74</v>
@@ -54974,13 +54977,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -55003,17 +55006,17 @@
         <v>21</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="O473" s="2"/>
       <c r="P473" t="s" s="2">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="Q473" t="s" s="2">
         <v>21</v>
@@ -55062,7 +55065,7 @@
         <v>21</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>74</v>
